--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H2">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.71759474949102</v>
+        <v>5.436778333333334</v>
       </c>
       <c r="N2">
-        <v>3.71759474949102</v>
+        <v>16.310335</v>
       </c>
       <c r="O2">
-        <v>0.08788932983136978</v>
+        <v>0.121853993972124</v>
       </c>
       <c r="P2">
-        <v>0.08788932983136978</v>
+        <v>0.121853993972124</v>
       </c>
       <c r="Q2">
-        <v>1.722055354104782</v>
+        <v>12.44016796793556</v>
       </c>
       <c r="R2">
-        <v>1.722055354104782</v>
+        <v>111.96151171142</v>
       </c>
       <c r="S2">
-        <v>0.01067900602038663</v>
+        <v>0.04830559232412419</v>
       </c>
       <c r="T2">
-        <v>0.01067900602038663</v>
+        <v>0.04830559232412419</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H3">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.6836177524314</v>
+        <v>20.81735866666667</v>
       </c>
       <c r="N3">
-        <v>20.6836177524314</v>
+        <v>62.452076</v>
       </c>
       <c r="O3">
-        <v>0.4889907118031908</v>
+        <v>0.4665774732677552</v>
       </c>
       <c r="P3">
-        <v>0.4889907118031908</v>
+        <v>0.4665774732677551</v>
       </c>
       <c r="Q3">
-        <v>9.581015977523572</v>
+        <v>47.63325311137245</v>
       </c>
       <c r="R3">
-        <v>9.581015977523572</v>
+        <v>428.699278002352</v>
       </c>
       <c r="S3">
-        <v>0.05941488876156596</v>
+        <v>0.1849615304070223</v>
       </c>
       <c r="T3">
-        <v>0.05941488876156596</v>
+        <v>0.1849615304070223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H4">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.73373843961527</v>
+        <v>5.131792</v>
       </c>
       <c r="N4">
-        <v>4.73373843961527</v>
+        <v>15.395376</v>
       </c>
       <c r="O4">
-        <v>0.1119124399214684</v>
+        <v>0.1150183643869107</v>
       </c>
       <c r="P4">
-        <v>0.1119124399214684</v>
+        <v>0.1150183643869107</v>
       </c>
       <c r="Q4">
-        <v>2.192751005468565</v>
+        <v>11.74231328599467</v>
       </c>
       <c r="R4">
-        <v>2.192751005468565</v>
+        <v>105.680819573952</v>
       </c>
       <c r="S4">
-        <v>0.01359793756500978</v>
+        <v>0.04559579902758623</v>
       </c>
       <c r="T4">
-        <v>0.01359793756500978</v>
+        <v>0.04559579902758623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H5">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I5">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J5">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.1636393039886</v>
+        <v>13.23122433333333</v>
       </c>
       <c r="N5">
-        <v>13.1636393039886</v>
+        <v>39.693673</v>
       </c>
       <c r="O5">
-        <v>0.3112075184439712</v>
+        <v>0.2965501683732101</v>
       </c>
       <c r="P5">
-        <v>0.3112075184439712</v>
+        <v>0.2965501683732101</v>
       </c>
       <c r="Q5">
-        <v>6.097629534806418</v>
+        <v>30.27503477913288</v>
       </c>
       <c r="R5">
-        <v>6.097629534806418</v>
+        <v>272.475313012196</v>
       </c>
       <c r="S5">
-        <v>0.03781331555752237</v>
+        <v>0.1175589824356823</v>
       </c>
       <c r="T5">
-        <v>0.03781331555752237</v>
+        <v>0.1175589824356823</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H6">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.71759474949102</v>
+        <v>5.436778333333334</v>
       </c>
       <c r="N6">
-        <v>3.71759474949102</v>
+        <v>16.310335</v>
       </c>
       <c r="O6">
-        <v>0.08788932983136978</v>
+        <v>0.121853993972124</v>
       </c>
       <c r="P6">
-        <v>0.08788932983136978</v>
+        <v>0.121853993972124</v>
       </c>
       <c r="Q6">
-        <v>9.383586648653131</v>
+        <v>14.07524280649667</v>
       </c>
       <c r="R6">
-        <v>9.383586648653131</v>
+        <v>126.67718525847</v>
       </c>
       <c r="S6">
-        <v>0.05819056749536348</v>
+        <v>0.05465464313875505</v>
       </c>
       <c r="T6">
-        <v>0.05819056749536348</v>
+        <v>0.05465464313875507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H7">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.6836177524314</v>
+        <v>20.81735866666667</v>
       </c>
       <c r="N7">
-        <v>20.6836177524314</v>
+        <v>62.452076</v>
       </c>
       <c r="O7">
-        <v>0.4889907118031908</v>
+        <v>0.4665774732677552</v>
       </c>
       <c r="P7">
-        <v>0.4889907118031908</v>
+        <v>0.4665774732677551</v>
       </c>
       <c r="Q7">
-        <v>52.2075515127443</v>
+        <v>53.89393494798133</v>
       </c>
       <c r="R7">
-        <v>52.2075515127443</v>
+        <v>485.045414531832</v>
       </c>
       <c r="S7">
-        <v>0.3237554214417649</v>
+        <v>0.2092719694018798</v>
       </c>
       <c r="T7">
-        <v>0.3237554214417649</v>
+        <v>0.2092719694018798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H8">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J8">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.73373843961527</v>
+        <v>5.131792</v>
       </c>
       <c r="N8">
-        <v>4.73373843961527</v>
+        <v>15.395376</v>
       </c>
       <c r="O8">
-        <v>0.1119124399214684</v>
+        <v>0.1150183643869107</v>
       </c>
       <c r="P8">
-        <v>0.1119124399214684</v>
+        <v>0.1150183643869107</v>
       </c>
       <c r="Q8">
-        <v>11.94843650623067</v>
+        <v>13.285665518048</v>
       </c>
       <c r="R8">
-        <v>11.94843650623067</v>
+        <v>119.570989662432</v>
       </c>
       <c r="S8">
-        <v>0.07409600689089157</v>
+        <v>0.05158868786367381</v>
       </c>
       <c r="T8">
-        <v>0.07409600689089157</v>
+        <v>0.05158868786367382</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H9">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J9">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.1636393039886</v>
+        <v>13.23122433333333</v>
       </c>
       <c r="N9">
-        <v>13.1636393039886</v>
+        <v>39.693673</v>
       </c>
       <c r="O9">
-        <v>0.3112075184439712</v>
+        <v>0.2965501683732101</v>
       </c>
       <c r="P9">
-        <v>0.3112075184439712</v>
+        <v>0.2965501683732101</v>
       </c>
       <c r="Q9">
-        <v>33.22636229715586</v>
+        <v>34.25423728922066</v>
       </c>
       <c r="R9">
-        <v>33.22636229715586</v>
+        <v>308.288135602986</v>
       </c>
       <c r="S9">
-        <v>0.2060471065352785</v>
+        <v>0.1330103601600725</v>
       </c>
       <c r="T9">
-        <v>0.2060471065352785</v>
+        <v>0.1330103601600725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H10">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.71759474949102</v>
+        <v>5.436778333333334</v>
       </c>
       <c r="N10">
-        <v>3.71759474949102</v>
+        <v>16.310335</v>
       </c>
       <c r="O10">
-        <v>0.08788932983136978</v>
+        <v>0.121853993972124</v>
       </c>
       <c r="P10">
-        <v>0.08788932983136978</v>
+        <v>0.121853993972124</v>
       </c>
       <c r="Q10">
-        <v>1.007697687409583</v>
+        <v>1.698190398232778</v>
       </c>
       <c r="R10">
-        <v>1.007697687409583</v>
+        <v>15.283713584095</v>
       </c>
       <c r="S10">
-        <v>0.006249049802566237</v>
+        <v>0.006594130664249211</v>
       </c>
       <c r="T10">
-        <v>0.006249049802566237</v>
+        <v>0.006594130664249213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H11">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I11">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J11">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.6836177524314</v>
+        <v>20.81735866666667</v>
       </c>
       <c r="N11">
-        <v>20.6836177524314</v>
+        <v>62.452076</v>
       </c>
       <c r="O11">
-        <v>0.4889907118031908</v>
+        <v>0.4665774732677552</v>
       </c>
       <c r="P11">
-        <v>0.4889907118031908</v>
+        <v>0.4665774732677551</v>
       </c>
       <c r="Q11">
-        <v>5.606537339564118</v>
+        <v>6.502350553370221</v>
       </c>
       <c r="R11">
-        <v>5.606537339564118</v>
+        <v>58.52115498033199</v>
       </c>
       <c r="S11">
-        <v>0.03476789863927022</v>
+        <v>0.02524884678319742</v>
       </c>
       <c r="T11">
-        <v>0.03476789863927022</v>
+        <v>0.02524884678319742</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H12">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I12">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J12">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.73373843961527</v>
+        <v>5.131792</v>
       </c>
       <c r="N12">
-        <v>4.73373843961527</v>
+        <v>15.395376</v>
       </c>
       <c r="O12">
-        <v>0.1119124399214684</v>
+        <v>0.1150183643869107</v>
       </c>
       <c r="P12">
-        <v>0.1119124399214684</v>
+        <v>0.1150183643869107</v>
       </c>
       <c r="Q12">
-        <v>1.283135360317379</v>
+        <v>1.602927205381333</v>
       </c>
       <c r="R12">
-        <v>1.283135360317379</v>
+        <v>14.426344848432</v>
       </c>
       <c r="S12">
-        <v>0.007957125306766701</v>
+        <v>0.006224220469367818</v>
       </c>
       <c r="T12">
-        <v>0.007957125306766701</v>
+        <v>0.00622422046936782</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H13">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I13">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J13">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.1636393039886</v>
+        <v>13.23122433333333</v>
       </c>
       <c r="N13">
-        <v>13.1636393039886</v>
+        <v>39.693673</v>
       </c>
       <c r="O13">
-        <v>0.3112075184439712</v>
+        <v>0.2965501683732101</v>
       </c>
       <c r="P13">
-        <v>0.3112075184439712</v>
+        <v>0.2965501683732101</v>
       </c>
       <c r="Q13">
-        <v>3.568158924890704</v>
+        <v>4.132803793373443</v>
       </c>
       <c r="R13">
-        <v>3.568158924890704</v>
+        <v>37.19523414036099</v>
       </c>
       <c r="S13">
-        <v>0.02212727398673711</v>
+        <v>0.01604781669450572</v>
       </c>
       <c r="T13">
-        <v>0.02212727398673711</v>
+        <v>0.01604781669450572</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H14">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I14">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J14">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.71759474949102</v>
+        <v>5.436778333333334</v>
       </c>
       <c r="N14">
-        <v>3.71759474949102</v>
+        <v>16.310335</v>
       </c>
       <c r="O14">
-        <v>0.08788932983136978</v>
+        <v>0.121853993972124</v>
       </c>
       <c r="P14">
-        <v>0.08788932983136978</v>
+        <v>0.121853993972124</v>
       </c>
       <c r="Q14">
-        <v>2.059354914167217</v>
+        <v>3.167530486080556</v>
       </c>
       <c r="R14">
-        <v>2.059354914167217</v>
+        <v>28.507774374725</v>
       </c>
       <c r="S14">
-        <v>0.01277070651305344</v>
+        <v>0.01229962784499558</v>
       </c>
       <c r="T14">
-        <v>0.01277070651305344</v>
+        <v>0.01229962784499558</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H15">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I15">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J15">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.6836177524314</v>
+        <v>20.81735866666667</v>
       </c>
       <c r="N15">
-        <v>20.6836177524314</v>
+        <v>62.452076</v>
       </c>
       <c r="O15">
-        <v>0.4889907118031908</v>
+        <v>0.4665774732677552</v>
       </c>
       <c r="P15">
-        <v>0.4889907118031908</v>
+        <v>0.4665774732677551</v>
       </c>
       <c r="Q15">
-        <v>11.4576527920526</v>
+        <v>12.12843602838444</v>
       </c>
       <c r="R15">
-        <v>11.4576527920526</v>
+        <v>109.15592425546</v>
       </c>
       <c r="S15">
-        <v>0.07105250296058972</v>
+        <v>0.04709512667565565</v>
       </c>
       <c r="T15">
-        <v>0.07105250296058972</v>
+        <v>0.04709512667565565</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H16">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I16">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J16">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.73373843961527</v>
+        <v>5.131792</v>
       </c>
       <c r="N16">
-        <v>4.73373843961527</v>
+        <v>15.395376</v>
       </c>
       <c r="O16">
-        <v>0.1119124399214684</v>
+        <v>0.1150183643869107</v>
       </c>
       <c r="P16">
-        <v>0.1119124399214684</v>
+        <v>0.1150183643869107</v>
       </c>
       <c r="Q16">
-        <v>2.62224588071054</v>
+        <v>2.989841890106666</v>
       </c>
       <c r="R16">
-        <v>2.62224588071054</v>
+        <v>26.90857701096</v>
       </c>
       <c r="S16">
-        <v>0.01626137015880036</v>
+        <v>0.01160965702628282</v>
       </c>
       <c r="T16">
-        <v>0.01626137015880036</v>
+        <v>0.01160965702628282</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H17">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I17">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J17">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.1636393039886</v>
+        <v>13.23122433333333</v>
       </c>
       <c r="N17">
-        <v>13.1636393039886</v>
+        <v>39.693673</v>
       </c>
       <c r="O17">
-        <v>0.3112075184439712</v>
+        <v>0.2965501683732101</v>
       </c>
       <c r="P17">
-        <v>0.3112075184439712</v>
+        <v>0.2965501683732101</v>
       </c>
       <c r="Q17">
-        <v>7.29197427791319</v>
+        <v>7.708665660883888</v>
       </c>
       <c r="R17">
-        <v>7.29197427791319</v>
+        <v>69.37799094795498</v>
       </c>
       <c r="S17">
-        <v>0.04521982236443321</v>
+        <v>0.02993300908294949</v>
       </c>
       <c r="T17">
-        <v>0.04521982236443321</v>
+        <v>0.0299330090829495</v>
       </c>
     </row>
   </sheetData>
